--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlCredit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlCredit.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE60E9-4EB4-41A1-9D61-587A5091E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -242,18 +253,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType %</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReviewType = ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount &gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>processYes</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -346,12 +345,24 @@
   <si>
     <t>DECIMALD</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType ^i ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType ^i ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewType ^i ,AND DataDt &gt;= ,AND DataDt &lt;= ,AND ProcessType % ,AND ProcessCount &gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -624,9 +635,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,6 +728,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,6 +780,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -927,25 +972,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="24" customWidth="1"/>
     <col min="5" max="6" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="7" max="7" width="36.453125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
@@ -960,7 +1005,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
@@ -973,7 +1018,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1031,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1042,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +1055,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1066,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1077,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="16">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1111,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="15">
         <v>8</v>
@@ -1106,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>21</v>
@@ -1122,13 +1167,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="62.4">
+    <row r="12" spans="1:7" ht="62">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>51</v>
@@ -1152,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>22</v>
@@ -1176,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>23</v>
@@ -1200,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>27</v>
@@ -1216,7 +1261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="78">
+    <row r="16" spans="1:7" ht="77.5">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1225,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>27</v>
@@ -1235,7 +1280,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1247,7 +1292,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>24</v>
@@ -1267,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>39</v>
@@ -1284,10 +1329,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>39</v>
@@ -1307,7 +1352,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>27</v>
@@ -1327,10 +1372,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E21" s="15">
         <v>8</v>
@@ -1347,7 +1392,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>27</v>
@@ -1367,7 +1412,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>50</v>
@@ -1387,7 +1432,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>50</v>
@@ -1407,7 +1452,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>50</v>
@@ -1581,20 +1626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1614,7 +1659,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
@@ -1625,7 +1670,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
@@ -1633,10 +1678,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
@@ -1644,10 +1689,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlCredit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAmlCredit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE60E9-4EB4-41A1-9D61-587A5091E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A280603-7397-47CF-8797-9552F54E50FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,7 +1632,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
